--- a/public/templates/sectors.xlsx
+++ b/public/templates/sectors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aacalderon\Temp\Datos Kapatax\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BC4C77-6F78-4C77-9220-AE933B6B0CDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5582B0B1-661A-4837-BC2E-DECED7A04E29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20880" yWindow="-4125" windowWidth="20460" windowHeight="10890" xr2:uid="{54FC1EBC-B68F-497D-89E1-CF956BE0AD14}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{54FC1EBC-B68F-497D-89E1-CF956BE0AD14}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
